--- a/config/search_keywords_2025.xlsx
+++ b/config/search_keywords_2025.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="13.0" lowestEdited="13.0" rupBuild="0.711"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3146"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter\community_site_crawling-main\4.루리웹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monitoring_article\news_monitoring_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22125" windowHeight="8730" firstSheet="1" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17724" windowHeight="6924" firstSheet="1" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1 (2)" sheetId="1" state="hidden" r:id="rId4"/>
@@ -20,159 +20,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="203">
-  <x:si>
-    <x:t>중부일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍성신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일요신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충북일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>군사뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한겨레21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영암우리신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주간한국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주매일신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원도민일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경향신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옥천신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영주시민신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경인일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신규 검색어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한라일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김포신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당진시대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원주투데이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동양일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스서천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경북도민일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아시아투데이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광양신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문구독</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남도민일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사회뉴스스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기자협회보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포츠한국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이낸셜뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소년한국일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종이신문필사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사읽기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매일신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미디어오늘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무등일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문분석</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="199">
+  <x:si>
+    <x:t>속보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스핌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YTN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삽화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한겨레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SBS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MBC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만평</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MBN</x:t>
   </x:si>
   <x:si>
     <x:t>(신탁) 언론 매체명 : 116개(9.19일부로 추가)
@@ -181,153 +97,513 @@
 합 : 190개</x:t>
   </x:si>
   <x:si>
+    <x:t>BreakNews</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(신탁) 언론 매체명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여성경제신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포츠서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헬로디디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤럴드경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EBN산업뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사정리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증권이슈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스기사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국방뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농민신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주간설악신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경제뉴스스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주간고양신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아주경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평택시민신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노컷뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e대한경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식요약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식이슈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤드라인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이코노미스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메트로경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 검색어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포츠월드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스펭귄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비즈워치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코리아헤럴드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문공부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충청타임즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠키뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포츠경향</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이데일리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>머니투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금강일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어린이강원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일간스포츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내일신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브릿지경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부동산기사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침속보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PD저널</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시사IN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스클리핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데일리안</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모닝브리핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문요약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화제뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키워드뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코리아타임스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문읽기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레시안</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘의신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정치읽기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문사설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘의뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경인일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원도민일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당진시대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중부일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원주투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동양일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한겨레21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영암우리신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍성신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일요신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충북일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주매일신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신규 검색어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한라일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주간한국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경향신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김포신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옥천신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>군사뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영주시민신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무등일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경제뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광양신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남도민일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아투데이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사회뉴스스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이낸셜뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소년한국일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미디어오늘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울경제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종이신문필사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종이신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포츠한국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스서천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사읽기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문구독</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북도민일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기자협회보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사설이야기</x:t>
+  </x:si>
+  <x:si>
     <x:t>오늘뉴스</x:t>
   </x:si>
   <x:si>
-    <x:t>종이신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전남일보</x:t>
-  </x:si>
-  <x:si>
     <x:t>전라일보</x:t>
   </x:si>
   <x:si>
-    <x:t>BreakNews</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(신탁) 언론 매체명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사설이야기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경제뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천일보</x:t>
+    <x:t>대구일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펜앤드마이크</x:t>
   </x:si>
   <x:si>
     <x:t>정치뉴스스크랩</x:t>
   </x:si>
   <x:si>
+    <x:t>종합뉴스</x:t>
+  </x:si>
+  <x:si>
     <x:t>제주일보</x:t>
   </x:si>
   <x:si>
+    <x:t>울산매일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충청일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중도일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간추린뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문필사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중부매일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주간뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북도민일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기호일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남도일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미디어펜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영남일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부동산뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한줄뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뉴스분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제민일보</x:t>
+  </x:si>
+  <x:si>
     <x:t>충청투데이</x:t>
   </x:si>
   <x:si>
-    <x:t>주식스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중부매일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제민일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북도민일보</x:t>
+    <x:t>신문칼럼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른뉴스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사스크랩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북일보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부동산요약</x:t>
   </x:si>
   <x:si>
     <x:t>증권뉴스</x:t>
   </x:si>
   <x:si>
-    <x:t>울산매일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중도일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문필사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충청일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영남일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간추린뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주간뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부동산요약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대구일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>펜앤드마이크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문칼럼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부동산뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미디어펜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기호일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남도일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울와이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한줄뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종합뉴스</x:t>
+    <x:t>경북매일신문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신문사설읽기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데일리뉴스</x:t>
   </x:si>
   <x:si>
     <x:t>지면기사</x:t>
   </x:si>
   <x:si>
-    <x:t>데일리뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문사설읽기</x:t>
+    <x:t>뉴스요약</x:t>
   </x:si>
   <x:si>
     <x:t>신문브리핑</x:t>
   </x:si>
   <x:si>
-    <x:t>뉴스요약</x:t>
-  </x:si>
-  <x:si>
     <x:t>대구신문</x:t>
   </x:si>
   <x:si>
-    <x:t>경북매일신문</x:t>
-  </x:si>
-  <x:si>
     <x:t>국제신문</x:t>
   </x:si>
   <x:si>
@@ -344,294 +620,6 @@
   </x:si>
   <x:si>
     <x:t>브리핑뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증권이슈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식이슈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤드라인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여성경제신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식요약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고양신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스공유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YTN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SBS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한겨레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KBS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삽화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OBS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스핌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MBC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EBN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만평</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MBN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포츠서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국방뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농민신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주간설악신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경제뉴스스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주간고양신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아주경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스스크랩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스기사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평택시민신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노컷뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e대한경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이코노미스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메트로경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 검색어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포츠월드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤럴드경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헬로디디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스펭귄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EBN산업뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사정리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이데일리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이투데이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포츠경향</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색어명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>머니투데이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코리아타임스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사공유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비즈워치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데일리안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아시아경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어린이강원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금강일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경일보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PD저널</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일간스포츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내일신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시사IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브릿지경제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충청타임즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코리아헤럴드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모닝브리핑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뉴스클리핑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문요약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문공부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부동산기사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화제뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키워드뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침속보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠키뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘의신문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문읽기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문사설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘의뉴스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레시안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정치읽기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신문공유</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -741,7 +729,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -799,19 +787,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -856,8 +831,406 @@
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:dxfs count="12">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
 </x:styleSheet>
 </file>
 
@@ -1166,146 +1539,146 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:18" ht="16.5" customHeight="1">
-      <x:c r="B2" s="7" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C2" s="7"/>
-      <x:c r="D2" s="7"/>
-      <x:c r="F2" s="7" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="G2" s="7"/>
-      <x:c r="H2" s="7"/>
-      <x:c r="J2" s="7" t="s">
+      <x:c r="B2" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C2" s="6"/>
+      <x:c r="D2" s="6"/>
+      <x:c r="F2" s="6" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G2" s="6"/>
+      <x:c r="H2" s="6"/>
+      <x:c r="J2" s="6" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K2" s="6"/>
+      <x:c r="L2" s="6"/>
+      <x:c r="O2" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P2" s="7"/>
+      <x:c r="Q2" s="7"/>
+      <x:c r="R2" s="7"/>
+    </x:row>
+    <x:row r="3" spans="2:18">
+      <x:c r="B3" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="K2" s="7"/>
-      <x:c r="L2" s="7"/>
-      <x:c r="O2" s="8" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P2" s="8"/>
-      <x:c r="Q2" s="8"/>
-      <x:c r="R2" s="8"/>
-    </x:row>
-    <x:row r="3" spans="2:18">
-      <x:c r="B3" s="9" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C3" s="9" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D3" s="9"/>
-      <x:c r="F3" s="9" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="G3" s="9" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H3" s="9"/>
-      <x:c r="J3" s="9" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="K3" s="9" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="L3" s="9"/>
-      <x:c r="O3" s="8"/>
-      <x:c r="P3" s="8"/>
-      <x:c r="Q3" s="8"/>
-      <x:c r="R3" s="8"/>
+      <x:c r="C3" s="8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="8"/>
+      <x:c r="F3" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G3" s="8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H3" s="8"/>
+      <x:c r="J3" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K3" s="8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L3" s="8"/>
+      <x:c r="O3" s="7"/>
+      <x:c r="P3" s="7"/>
+      <x:c r="Q3" s="7"/>
+      <x:c r="R3" s="7"/>
     </x:row>
     <x:row r="4" spans="2:18">
-      <x:c r="B4" s="9"/>
+      <x:c r="B4" s="8"/>
       <x:c r="C4" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F4" s="9"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F4" s="8"/>
       <x:c r="G4" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="J4" s="9"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J4" s="8"/>
       <x:c r="K4" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="O4" s="8"/>
-      <x:c r="P4" s="8"/>
-      <x:c r="Q4" s="8"/>
-      <x:c r="R4" s="8"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="O4" s="7"/>
+      <x:c r="P4" s="7"/>
+      <x:c r="Q4" s="7"/>
+      <x:c r="R4" s="7"/>
     </x:row>
     <x:row r="5" spans="2:18">
       <x:c r="B5" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="1">
         <x:f>ROW(F1)</x:f>
         <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J5" s="1">
         <x:f>ROW(J1)</x:f>
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="O5" s="8"/>
-      <x:c r="P5" s="8"/>
-      <x:c r="Q5" s="8"/>
-      <x:c r="R5" s="8"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O5" s="7"/>
+      <x:c r="P5" s="7"/>
+      <x:c r="Q5" s="7"/>
+      <x:c r="R5" s="7"/>
     </x:row>
     <x:row r="6" spans="2:12">
       <x:c r="B6" s="1">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="1">
         <x:f t="shared" ref="F6:F63" si="0">ROW(F2)</x:f>
         <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J6" s="1">
         <x:f t="shared" ref="J6:J19" si="1">ROW(J2)</x:f>
         <x:v>2</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12">
@@ -1313,30 +1686,30 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F7" s="1">
         <x:f t="shared" si="0"/>
         <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J7" s="1">
         <x:f t="shared" si="1"/>
         <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:12">
@@ -1344,30 +1717,30 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F8" s="1">
         <x:f t="shared" si="0"/>
         <x:v>4</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J8" s="1">
         <x:f t="shared" si="1"/>
         <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:12">
@@ -1375,30 +1748,30 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F9" s="1">
         <x:f t="shared" si="0"/>
         <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J9" s="1">
         <x:f t="shared" si="1"/>
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:12">
@@ -1406,30 +1779,30 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1">
         <x:f t="shared" si="0"/>
         <x:v>6</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J10" s="1">
         <x:f t="shared" si="1"/>
         <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:12">
@@ -1437,30 +1810,30 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="1">
         <x:f t="shared" si="0"/>
         <x:v>7</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J11" s="1">
         <x:f t="shared" si="1"/>
         <x:v>7</x:v>
       </x:c>
       <x:c r="K11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="L11" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:12">
@@ -1468,30 +1841,30 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="1">
         <x:f t="shared" si="0"/>
         <x:v>8</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J12" s="1">
         <x:f t="shared" si="1"/>
         <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L12" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:12">
@@ -1499,30 +1872,30 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="1">
         <x:f t="shared" si="0"/>
         <x:v>9</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J13" s="1">
         <x:f t="shared" si="1"/>
         <x:v>9</x:v>
       </x:c>
       <x:c r="K13" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="L13" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:12">
@@ -1530,30 +1903,30 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F14" s="1">
         <x:f t="shared" si="0"/>
         <x:v>10</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J14" s="1">
         <x:f t="shared" si="1"/>
         <x:v>10</x:v>
       </x:c>
       <x:c r="K14" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L14" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12">
@@ -1561,30 +1934,30 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F15" s="1">
+        <x:f t="shared" si="0"/>
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F15" s="1">
-        <x:f t="shared" si="0"/>
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J15" s="1">
         <x:f t="shared" si="1"/>
         <x:v>11</x:v>
       </x:c>
       <x:c r="K15" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="L15" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:12">
@@ -1592,30 +1965,30 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="1">
         <x:f t="shared" si="0"/>
         <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J16" s="1">
         <x:f t="shared" si="1"/>
         <x:v>12</x:v>
       </x:c>
       <x:c r="K16" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
@@ -1623,30 +1996,30 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="1">
         <x:f t="shared" si="0"/>
         <x:v>13</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J17" s="1">
         <x:f t="shared" si="1"/>
         <x:v>13</x:v>
       </x:c>
       <x:c r="K17" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L17" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:12">
@@ -1654,30 +2027,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="1">
         <x:f t="shared" si="0"/>
         <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J18" s="1">
         <x:f t="shared" si="1"/>
         <x:v>14</x:v>
       </x:c>
       <x:c r="K18" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L18" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:12">
@@ -1685,30 +2058,30 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="1">
         <x:f t="shared" si="0"/>
         <x:v>15</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J19" s="1">
         <x:f t="shared" si="1"/>
         <x:v>15</x:v>
       </x:c>
       <x:c r="K19" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L19" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:8">
@@ -1716,20 +2089,20 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F20" s="1">
         <x:f t="shared" si="0"/>
         <x:v>16</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:8">
@@ -1737,20 +2110,20 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F21" s="1">
         <x:f t="shared" si="0"/>
         <x:v>17</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:8">
@@ -1758,20 +2131,20 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F22" s="1">
         <x:f t="shared" si="0"/>
         <x:v>18</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:8">
@@ -1779,20 +2152,20 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F23" s="1">
         <x:f t="shared" si="0"/>
         <x:v>19</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8">
@@ -1800,20 +2173,20 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="1">
         <x:f t="shared" si="0"/>
         <x:v>20</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:8">
@@ -1821,20 +2194,20 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F25" s="1">
         <x:f t="shared" si="0"/>
         <x:v>21</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:8">
@@ -1842,20 +2215,20 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F26" s="1">
         <x:f t="shared" si="0"/>
         <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:8">
@@ -1863,20 +2236,20 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F27" s="1">
         <x:f t="shared" si="0"/>
         <x:v>23</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:8">
@@ -1884,20 +2257,20 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="1">
         <x:f t="shared" si="0"/>
         <x:v>24</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:8">
@@ -1905,20 +2278,20 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F29" s="1">
         <x:f t="shared" si="0"/>
         <x:v>25</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:8">
@@ -1926,20 +2299,20 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F30" s="1">
         <x:f t="shared" si="0"/>
         <x:v>26</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:8">
@@ -1947,20 +2320,20 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F31" s="1">
         <x:f t="shared" si="0"/>
         <x:v>27</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:8">
@@ -1968,20 +2341,20 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F32" s="1">
         <x:f t="shared" si="0"/>
         <x:v>28</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:8">
@@ -1989,20 +2362,20 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F33" s="1">
         <x:f t="shared" si="0"/>
         <x:v>29</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:8">
@@ -2010,20 +2383,20 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F34" s="1">
         <x:f t="shared" si="0"/>
         <x:v>30</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H34" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:8">
@@ -2031,20 +2404,20 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F35" s="1">
         <x:f t="shared" si="0"/>
         <x:v>31</x:v>
       </x:c>
       <x:c r="G35" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H35" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:8">
@@ -2052,20 +2425,20 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F36" s="1">
         <x:f t="shared" si="0"/>
         <x:v>32</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:8">
@@ -2073,20 +2446,20 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F37" s="1">
         <x:f t="shared" si="0"/>
         <x:v>33</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="2:8">
@@ -2094,20 +2467,20 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="1">
         <x:f t="shared" si="0"/>
         <x:v>34</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:8">
@@ -2115,20 +2488,20 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F39" s="1">
         <x:f t="shared" si="0"/>
         <x:v>35</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:8">
@@ -2136,20 +2509,20 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F40" s="1">
         <x:f t="shared" si="0"/>
         <x:v>36</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="2:8">
@@ -2157,20 +2530,20 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F41" s="1">
         <x:f t="shared" si="0"/>
         <x:v>37</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:8">
@@ -2178,20 +2551,20 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F42" s="1">
         <x:f t="shared" si="0"/>
         <x:v>38</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:8">
@@ -2199,20 +2572,20 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F43" s="1">
         <x:f t="shared" si="0"/>
         <x:v>39</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="2:8">
@@ -2220,20 +2593,20 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="1">
         <x:f t="shared" si="0"/>
         <x:v>40</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="2:8">
@@ -2241,20 +2614,20 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F45" s="1">
         <x:f t="shared" si="0"/>
         <x:v>41</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="2:8">
@@ -2262,20 +2635,20 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F46" s="1">
         <x:f t="shared" si="0"/>
         <x:v>42</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="2:8">
@@ -2283,20 +2656,20 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F47" s="1">
         <x:f t="shared" si="0"/>
         <x:v>43</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="2:8">
@@ -2304,20 +2677,20 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F48" s="1">
         <x:f t="shared" si="0"/>
         <x:v>44</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="2:8">
@@ -2325,20 +2698,20 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F49" s="1">
         <x:f t="shared" si="0"/>
         <x:v>45</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="2:8">
@@ -2346,20 +2719,20 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F50" s="1">
         <x:f t="shared" si="0"/>
         <x:v>46</x:v>
       </x:c>
       <x:c r="G50" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:8">
@@ -2367,20 +2740,20 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F51" s="1">
         <x:f t="shared" si="0"/>
         <x:v>47</x:v>
       </x:c>
       <x:c r="G51" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="2:8">
@@ -2388,20 +2761,20 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F52" s="1">
         <x:f t="shared" si="0"/>
         <x:v>48</x:v>
       </x:c>
       <x:c r="G52" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H52" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:8">
@@ -2409,20 +2782,20 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F53" s="1">
         <x:f t="shared" si="0"/>
         <x:v>49</x:v>
       </x:c>
       <x:c r="G53" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="2:8">
@@ -2430,20 +2803,20 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F54" s="1">
         <x:f t="shared" si="0"/>
         <x:v>50</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="2:8">
@@ -2451,20 +2824,20 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F55" s="1">
         <x:f t="shared" si="0"/>
         <x:v>51</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8">
@@ -2472,20 +2845,20 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F56" s="1">
         <x:f t="shared" si="0"/>
         <x:v>52</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="2:8">
@@ -2493,20 +2866,20 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F57" s="1">
         <x:f t="shared" si="0"/>
         <x:v>53</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:8">
@@ -2514,20 +2887,20 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F58" s="1">
         <x:f t="shared" si="0"/>
         <x:v>54</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="2:8">
@@ -2535,20 +2908,20 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F59" s="1">
         <x:f t="shared" si="0"/>
         <x:v>55</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:8">
@@ -2556,20 +2929,20 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F60" s="1">
         <x:f t="shared" si="0"/>
         <x:v>56</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="2:8">
@@ -2577,20 +2950,20 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F61" s="1">
+        <x:f t="shared" si="0"/>
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F61" s="1">
-        <x:f t="shared" si="0"/>
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="G61" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:8">
@@ -2598,20 +2971,20 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F62" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G62" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D62" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F62" s="1">
-        <x:f t="shared" si="0"/>
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G62" s="1" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:8">
@@ -2619,20 +2992,20 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F63" s="1">
         <x:f t="shared" si="0"/>
         <x:v>59</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:4">
@@ -2640,10 +3013,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="2:4">
@@ -2651,10 +3024,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="2:4">
@@ -2662,10 +3035,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="2:4">
@@ -2673,10 +3046,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="2:4">
@@ -2684,10 +3057,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="2:4">
@@ -2695,10 +3068,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="2:4">
@@ -2706,10 +3079,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:4">
@@ -2717,10 +3090,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D71" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="2:4">
@@ -2728,10 +3101,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D72" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="2:4">
@@ -2739,10 +3112,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="2:4">
@@ -2750,10 +3123,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="2:4">
@@ -2761,10 +3134,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:4">
@@ -2772,10 +3145,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D76" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="2:4">
@@ -2783,10 +3156,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D77" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="2:4">
@@ -2794,10 +3167,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="2:4">
@@ -2805,10 +3178,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D79" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="2:4">
@@ -2816,10 +3189,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D80" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="2:4">
@@ -2827,10 +3200,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="2:4">
@@ -2838,10 +3211,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D82" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="2:4">
@@ -2849,10 +3222,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D83" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="2:4">
@@ -2860,10 +3233,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C84" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D84" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="2:4">
@@ -2871,10 +3244,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D85" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="2:4">
@@ -2882,10 +3255,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C86" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D86" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="2:4">
@@ -2893,10 +3266,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C87" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D87" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="2:4">
@@ -2904,10 +3277,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D88" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="2:4">
@@ -2915,10 +3288,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C89" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D89" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:4">
@@ -2926,10 +3299,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C90" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D90" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:4">
@@ -2937,10 +3310,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C91" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D91" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:4">
@@ -2948,10 +3321,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="C92" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D92" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="2:4">
@@ -2959,10 +3332,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C93" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D93" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="2:4">
@@ -2970,10 +3343,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C94" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D94" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="2:4">
@@ -2981,10 +3354,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C95" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D95" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="2:4">
@@ -2992,10 +3365,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C96" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D96" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="2:4">
@@ -3003,10 +3376,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C97" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D97" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="2:4">
@@ -3014,10 +3387,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C98" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D98" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="2:4">
@@ -3025,10 +3398,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C99" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="2:4">
@@ -3036,10 +3409,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C100" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D100" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="2:4">
@@ -3047,10 +3420,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="C101" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D101" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="2:4">
@@ -3058,10 +3431,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="C102" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D102" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="2:4">
@@ -3069,10 +3442,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="C103" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D103" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="2:4">
@@ -3080,10 +3453,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="C104" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D104" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="2:4">
@@ -3091,10 +3464,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="C105" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D105" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="2:4">
@@ -3102,10 +3475,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="C106" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D106" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="2:4">
@@ -3113,10 +3486,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="C107" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D107" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="2:4">
@@ -3124,10 +3497,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="C108" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D108" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="2:4">
@@ -3135,10 +3508,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="C109" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D109" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="2:4">
@@ -3146,10 +3519,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="C110" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D110" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="2:4">
@@ -3157,10 +3530,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C111" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D111" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="2:4">
@@ -3168,10 +3541,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C112" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D112" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="2:4">
@@ -3179,10 +3552,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="C113" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D113" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="2:4">
@@ -3190,10 +3563,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="C114" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D114" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="2:4">
@@ -3201,10 +3574,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="C115" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="2:4">
@@ -3212,10 +3585,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D116" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="2:4">
@@ -3223,10 +3596,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="C117" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D117" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="2:4">
@@ -3234,10 +3607,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C118" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D118" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="2:4">
@@ -3245,10 +3618,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="C119" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D119" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:4">
@@ -3256,10 +3629,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="C120" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D120" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3277,17 +3650,16 @@
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:D118"/>
+  <x:dimension ref="A1:D4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
+      <x:selection activeCell="C10" activeCellId="0" sqref="C9:C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -3299,950 +3671,38 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="4" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>166</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" ht="16.5" customHeight="1">
       <x:c r="A2" s="1">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D2" s="8"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D2" s="7"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D3" s="8"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="7"/>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D4" s="8"/>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="1">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="1">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="1">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="1">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="1">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="1">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="1">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="1">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="1">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="1">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="1">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="1">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="1">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="1">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="1">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="1">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="1">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="1">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" s="1">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" s="1">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B26" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="A27" s="1">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B27" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="A28" s="1">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B28" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="A29" s="1">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B29" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
-      <x:c r="A30" s="1">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B30" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
-      <x:c r="A31" s="1">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B31" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
-      <x:c r="A32" s="1">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B32" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
-      <x:c r="A33" s="1">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B33" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
-      <x:c r="A34" s="1">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B34" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
-      <x:c r="A35" s="1">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B35" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2">
-      <x:c r="A36" s="1">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B36" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
-      <x:c r="A37" s="1">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B37" s="1" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:2">
-      <x:c r="A38" s="1">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B38" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
-      <x:c r="A39" s="1">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B39" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2">
-      <x:c r="A40" s="1">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
-      <x:c r="A41" s="1">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B41" s="1" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:2">
-      <x:c r="A42" s="1">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B42" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2">
-      <x:c r="A43" s="1">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B43" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:2">
-      <x:c r="A44" s="1">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B44" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:2">
-      <x:c r="A45" s="1">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B45" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:2">
-      <x:c r="A46" s="1">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B46" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:2">
-      <x:c r="A47" s="1">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B47" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:2">
-      <x:c r="A48" s="1">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B48" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:2">
-      <x:c r="A49" s="1">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B49" s="1" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:2">
-      <x:c r="A50" s="1">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B50" s="1" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:2">
-      <x:c r="A51" s="1">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B51" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:2">
-      <x:c r="A52" s="1">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B52" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:2">
-      <x:c r="A53" s="1">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B53" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:2">
-      <x:c r="A54" s="1">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B54" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:2">
-      <x:c r="A55" s="1">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B55" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:2">
-      <x:c r="A56" s="1">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B56" s="1" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:2">
-      <x:c r="A57" s="1">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:2">
-      <x:c r="A58" s="1">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B58" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:2">
-      <x:c r="A59" s="1">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B59" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:2">
-      <x:c r="A60" s="1">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B60" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:2">
-      <x:c r="A61" s="1">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B61" s="5" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:2">
-      <x:c r="A62" s="1">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B62" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:2">
-      <x:c r="A63" s="1">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B63" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:2">
-      <x:c r="A64" s="1">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B64" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:2">
-      <x:c r="A65" s="1">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B65" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:2">
-      <x:c r="A66" s="1">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B66" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:2">
-      <x:c r="A67" s="1">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B67" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:2">
-      <x:c r="A68" s="1">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B68" s="1" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:2">
-      <x:c r="A69" s="1">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B69" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:2">
-      <x:c r="A70" s="1">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B70" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:2">
-      <x:c r="A71" s="1">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B71" s="1" t="s">
-        <x:v>147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:2">
-      <x:c r="A72" s="1">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B72" s="1" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:2">
-      <x:c r="A73" s="1">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B73" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:2">
-      <x:c r="A74" s="1">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B74" s="3" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:2">
-      <x:c r="A75" s="1">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B75" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:2">
-      <x:c r="A76" s="1">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B76" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:2">
-      <x:c r="A77" s="1">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B77" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:2">
-      <x:c r="A78" s="1">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B78" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:2">
-      <x:c r="A79" s="1">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B79" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:2">
-      <x:c r="A80" s="1">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B80" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:2">
-      <x:c r="A81" s="1">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B81" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:2">
-      <x:c r="A82" s="1">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B82" s="1" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:2">
-      <x:c r="A83" s="1">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B83" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:2">
-      <x:c r="A84" s="1">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B84" s="1" t="s">
-        <x:v>164</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:2">
-      <x:c r="A85" s="1">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B85" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:2">
-      <x:c r="A86" s="1">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B86" s="1" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:2">
-      <x:c r="A87" s="1">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B87" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:2">
-      <x:c r="A88" s="1">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B88" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:2">
-      <x:c r="A89" s="1">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B89" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:2">
-      <x:c r="A90" s="1">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B90" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:2">
-      <x:c r="A91" s="1">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B91" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:2">
-      <x:c r="A92" s="1">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B92" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:2">
-      <x:c r="A93" s="1">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B93" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:2">
-      <x:c r="A94" s="1">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="B94" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:2">
-      <x:c r="A95" s="1">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B95" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:2">
-      <x:c r="A96" s="1">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B96" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:2">
-      <x:c r="A97" s="1">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B97" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:2">
-      <x:c r="A98" s="1">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B98" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:2">
-      <x:c r="A99" s="1">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B99" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:2">
-      <x:c r="A100" s="1">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B100" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:2">
-      <x:c r="A101" s="1">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B101" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:2">
-      <x:c r="A102" s="1">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B102" s="1" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:2">
-      <x:c r="A103" s="1">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B103" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:2">
-      <x:c r="A104" s="1">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B104" s="1" t="s">
-        <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:2">
-      <x:c r="A105" s="1">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B105" s="1" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:2">
-      <x:c r="A106" s="1">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="B106" s="3" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:2">
-      <x:c r="A107" s="1">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B107" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:2">
-      <x:c r="A108" s="1">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B108" s="3" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:2">
-      <x:c r="A109" s="1">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="B109" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:2">
-      <x:c r="A110" s="1">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="B110" s="3" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:2">
-      <x:c r="A111" s="1">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B111" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:2">
-      <x:c r="A112" s="1">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="B112" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:2">
-      <x:c r="A113" s="1">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B113" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:2">
-      <x:c r="A114" s="1">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="B114" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="115" spans="1:2">
-      <x:c r="A115" s="1">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B115" s="1" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:2">
-      <x:c r="A116" s="1">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="B116" s="2" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:2">
-      <x:c r="A117" s="1">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="B117" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:2">
-      <x:c r="A118" s="1">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="B118" s="1" t="s">
-        <x:v>176</x:v>
-      </x:c>
+      <x:c r="D4" s="7"/>
     </x:row>
   </x:sheetData>
   <x:sortState columnSort="0" caseSensitive="0" ref="C4:C120">
@@ -4253,6 +3713,5 @@
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1"/>
 </x:worksheet>
 </file>
--- a/config/search_keywords_2025.xlsx
+++ b/config/search_keywords_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monitoring_article\news_monitoring_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878084B5-4833-485A-9FAC-DF1912D0536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2193F11-D3A2-41EA-A2B0-8948B60D57C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="564" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="검색어 목록" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>JTBC</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>KBS</t>
+  </si>
+  <si>
+    <t>YTN</t>
+  </si>
+  <si>
+    <t>MBN</t>
+  </si>
+  <si>
+    <t>TV조선</t>
+  </si>
+  <si>
+    <t>채널A</t>
+  </si>
+  <si>
+    <t>연합뉴스TV</t>
+  </si>
+  <si>
+    <t>한국경제TV</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>뉴스1</t>
+  </si>
+  <si>
+    <t>뉴시스</t>
+  </si>
+  <si>
+    <t>조선일보</t>
+  </si>
+  <si>
+    <t>중앙일보</t>
+  </si>
+  <si>
+    <t>동아일보</t>
+  </si>
+  <si>
+    <t>한겨레</t>
+  </si>
+  <si>
+    <t>경향신문</t>
+  </si>
+  <si>
+    <t>한국일보</t>
+  </si>
+  <si>
+    <t>서울신문</t>
+  </si>
+  <si>
+    <t>국민일보</t>
+  </si>
+  <si>
+    <t>세계일보</t>
+  </si>
+  <si>
+    <t>문화일보</t>
+  </si>
+  <si>
+    <t>내일신문</t>
+  </si>
+  <si>
+    <t>매일경제</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>서울경제</t>
+  </si>
+  <si>
+    <t>아시아경제</t>
+  </si>
+  <si>
+    <t>헤럴드경제</t>
+  </si>
+  <si>
+    <t>파이낸셜뉴스</t>
+  </si>
+  <si>
+    <t>머니투데이</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>조선비즈</t>
+  </si>
+  <si>
+    <t>비즈워치</t>
+  </si>
+  <si>
+    <t>조세일보</t>
+  </si>
+  <si>
+    <t>머니S</t>
+  </si>
+  <si>
+    <t>블로터</t>
+  </si>
+  <si>
+    <t>지디넷코리아</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>디지털데일리</t>
+  </si>
+  <si>
+    <t>디지털타임스</t>
+  </si>
+  <si>
+    <t>데일리안</t>
+  </si>
+  <si>
+    <t>더팩트</t>
+  </si>
+  <si>
+    <t>미디어오늘</t>
+  </si>
+  <si>
+    <t>노컷뉴스</t>
+  </si>
+  <si>
+    <t>프레시안</t>
+  </si>
+  <si>
+    <t>오마이뉴스</t>
+  </si>
+  <si>
+    <t>뉴스타파</t>
+  </si>
+  <si>
+    <t>동아사이언스</t>
+  </si>
+  <si>
+    <t>헬스조선</t>
+  </si>
+  <si>
+    <t>코리아헤럴드</t>
+  </si>
+  <si>
+    <t>코리아중앙데일리</t>
+  </si>
+  <si>
+    <t>OSEN</t>
+  </si>
+  <si>
+    <t>스타뉴스</t>
+  </si>
+  <si>
+    <t>엑스포츠뉴스</t>
+  </si>
+  <si>
+    <t>스포츠조선</t>
+  </si>
+  <si>
+    <t>스포츠서울</t>
+  </si>
+  <si>
+    <t>스포츠동아</t>
+  </si>
+  <si>
+    <t>일간스포츠</t>
+  </si>
+  <si>
+    <t>스포츠경향</t>
+  </si>
+  <si>
+    <t>마이데일리</t>
+  </si>
+  <si>
+    <t>뉴스엔</t>
+  </si>
+  <si>
+    <t>TV리포트</t>
+  </si>
+  <si>
+    <t>텐아시아</t>
+  </si>
+  <si>
+    <t>조이뉴스24</t>
+  </si>
+  <si>
+    <t>스포티비뉴스</t>
+  </si>
+  <si>
+    <t>MK스포츠</t>
+  </si>
+  <si>
+    <t>스포츠W</t>
+  </si>
+  <si>
+    <t>MHN스포츠</t>
+  </si>
+  <si>
+    <t>스포츠투데이</t>
+  </si>
+  <si>
+    <t>디스패치</t>
+  </si>
+  <si>
+    <t>스포츠월드</t>
+  </si>
+  <si>
+    <t>헤럴드POP</t>
+  </si>
+  <si>
+    <t>MBC연예</t>
+  </si>
+  <si>
+    <t>SBS연예뉴스</t>
+  </si>
+  <si>
+    <t>인터풋볼</t>
+  </si>
+  <si>
+    <t>포포투</t>
+  </si>
+  <si>
+    <t>베스트일레븐</t>
+  </si>
+  <si>
+    <t>스포탈코리아</t>
+  </si>
+  <si>
+    <t>바스켓코리아</t>
+  </si>
+  <si>
+    <t>데일리e스포츠</t>
+  </si>
+  <si>
+    <t>포모스</t>
   </si>
   <si>
     <t>검색어명</t>
@@ -306,15 +549,15 @@
   </sheetPr>
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
@@ -322,92 +565,416 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
